--- a/src/sastadev/data/methods/STAP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/STAP_Index_Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\Utrecht\Projects\CLARIAH CORE\WP3\VKL\STAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7089E4B5-AB9E-4872-A835-4885C7CF49D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC663DBB-7600-4C3D-A5D9-C3609F9A2B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,18 +392,6 @@
     <t>core</t>
   </si>
   <si>
-    <t xml:space="preserve">//node[@cat="cp"
-    or @cat="whrel"
-    or @cat="whsub"
-    or @cat= "rel" 
-    or (node[@cat="ssub"]
-        and @rel!="body" 
-        and @rel!="cnj" 
-        and @rel!="tag" 
-        and @rel!="nucl")]
-</t>
-  </si>
-  <si>
     <t>S013</t>
   </si>
   <si>
@@ -557,6 +545,18 @@
   </si>
   <si>
     <t>Forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//node[(@cat="cp" and node[@cat="ssub"])
+    or @cat="whrel"
+    or @cat="whsub"
+    or @cat= "rel" 
+    or (node[@cat="ssub"]
+        and @rel!="body" 
+        and @rel!="cnj" 
+        and @rel!="tag" 
+        and @rel!="nucl")]
+</t>
   </si>
 </sst>
 </file>
@@ -994,10 +994,10 @@
   <dimension ref="A1:Q148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1095,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>98</v>
@@ -1133,7 +1133,7 @@
         <v>97</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>98</v>
@@ -1171,7 +1171,7 @@
         <v>97</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>98</v>
@@ -1212,7 +1212,7 @@
         <v>97</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>98</v>
@@ -1326,7 +1326,7 @@
         <v>97</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>98</v>
@@ -1367,7 +1367,7 @@
         <v>97</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>98</v>
@@ -1408,7 +1408,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>98</v>
@@ -1446,7 +1446,7 @@
         <v>97</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>98</v>
@@ -1484,7 +1484,7 @@
         <v>97</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>98</v>
@@ -1522,7 +1522,7 @@
         <v>97</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>98</v>
@@ -1536,19 +1536,19 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>98</v>
@@ -1560,7 +1560,7 @@
         <v>97</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>98</v>
@@ -1569,36 +1569,36 @@
         <v>98</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>98</v>
@@ -1607,36 +1607,36 @@
         <v>98</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>98</v>
@@ -1645,30 +1645,30 @@
         <v>98</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>97</v>
@@ -1680,33 +1680,33 @@
         <v>98</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>97</v>
@@ -1718,33 +1718,33 @@
         <v>98</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>97</v>
@@ -1756,33 +1756,33 @@
         <v>98</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="L20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/src/sastadev/data/methods/STAP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/STAP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC663DBB-7600-4C3D-A5D9-C3609F9A2B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B623269-27FD-4EDC-95BC-3F4628671A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
   <si>
     <t>Item</t>
   </si>
@@ -383,12 +383,6 @@
     <t>process</t>
   </si>
   <si>
-    <t>special1</t>
-  </si>
-  <si>
-    <t>special2</t>
-  </si>
-  <si>
     <t>core</t>
   </si>
   <si>
@@ -557,6 +551,21 @@
         and @rel!="tag" 
         and @rel!="nucl")]
 </t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>unused1</t>
+  </si>
+  <si>
+    <t>unused2</t>
   </si>
 </sst>
 </file>
@@ -991,13 +1000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q148"/>
+  <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,12 +1020,12 @@
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61.5546875" style="10" customWidth="1"/>
-    <col min="13" max="16" width="8.77734375" style="2"/>
-    <col min="17" max="17" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.77734375" style="2"/>
+    <col min="13" max="19" width="8.77734375" style="2"/>
+    <col min="20" max="20" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,16 +1069,25 @@
         <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>98</v>
@@ -1104,10 +1122,10 @@
         <v>98</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1133,7 +1151,7 @@
         <v>97</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>98</v>
@@ -1142,10 +1160,10 @@
         <v>98</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>97</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>98</v>
@@ -1180,13 +1198,13 @@
         <v>98</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1212,7 +1230,7 @@
         <v>97</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>98</v>
@@ -1221,10 +1239,10 @@
         <v>98</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1259,10 +1277,10 @@
         <v>98</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1297,10 +1315,10 @@
         <v>98</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>97</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>98</v>
@@ -1335,10 +1353,10 @@
         <v>98</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>97</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>98</v>
@@ -1376,10 +1394,10 @@
         <v>98</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>98</v>
@@ -1417,10 +1435,10 @@
         <v>98</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>97</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>98</v>
@@ -1455,10 +1473,10 @@
         <v>98</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1484,7 +1502,7 @@
         <v>97</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>98</v>
@@ -1493,10 +1511,10 @@
         <v>98</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>97</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>98</v>
@@ -1531,24 +1549,24 @@
         <v>98</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>98</v>
@@ -1560,7 +1578,7 @@
         <v>97</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>98</v>
@@ -1569,36 +1587,36 @@
         <v>98</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>98</v>
@@ -1607,36 +1625,36 @@
         <v>98</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>98</v>
@@ -1645,30 +1663,30 @@
         <v>98</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>97</v>
@@ -1680,33 +1698,33 @@
         <v>98</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>97</v>
@@ -1718,33 +1736,33 @@
         <v>98</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>97</v>
@@ -1756,61 +1774,61 @@
         <v>98</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="L20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E27" s="6"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.3">
@@ -1939,48 +1957,48 @@
     <row r="80" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K85" s="9"/>
     </row>
-    <row r="87" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E89" s="6"/>
       <c r="K89" s="9"/>
-      <c r="Q89" s="4"/>
-    </row>
-    <row r="90" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="T89" s="4"/>
+    </row>
+    <row r="90" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K92" s="9"/>
     </row>
-    <row r="94" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K96" s="9"/>
     </row>
     <row r="99" spans="11:11" x14ac:dyDescent="0.3">
@@ -2122,7 +2140,7 @@
       <c r="K148" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q148" xr:uid="{FEE5544A-5DEE-468C-AA79-13446D744343}"/>
+  <autoFilter ref="A1:T148" xr:uid="{FEE5544A-5DEE-468C-AA79-13446D744343}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M148">
     <sortCondition ref="E2:E148"/>
     <sortCondition ref="I2:I148"/>

--- a/src/sastadev/data/methods/STAP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/STAP_Index_Current.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAE02E-7F36-4373-987B-531EACB0A6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80EA685-05BC-4AF5-B487-365C08B412C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,17 +518,6 @@
 </t>
   </si>
   <si>
-    <t>//node[@pt="vnw" and 
-  not(@vwtype="bez") and
-    (@persoon="3"
-    or @persoon="3p"
-    or @persoon="3m"
-    or @persoon="3v"
-    or @persoon="3o")
-    and not(@pos="adv"
-        or @rel="det")]</t>
-  </si>
-  <si>
     <t>S019</t>
   </si>
   <si>
@@ -569,6 +558,27 @@
   </si>
   <si>
     <t>literal</t>
+  </si>
+  <si>
+    <t>//node[(@pt="vnw" and 
+  not(@vwtype="bez") and 
+  not(@vwtype="pr") and
+  not(@vwtype="refl") and
+  not(@vwtype="recip") and
+  not(@lemma="voor") and
+    (@persoon="3"
+    or @persoon="3p"
+    or @persoon="3m"
+    or @persoon="3v"
+    or @persoon="3o")
+    and not(@pos="adv"
+        or @rel="det")
+		) or
+		(@lemma="geen" and 
+		 @rel!="det" and 
+		 @rel!="mwp" and 
+		 (@rel!="hd" or parent::node[@rel!="det"]))
+	]</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1016,10 @@
   <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,22 +1082,22 @@
         <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>6</v>
@@ -1157,7 +1167,7 @@
         <v>97</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>98</v>
@@ -1403,7 +1413,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1432,7 +1442,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>98</v>
@@ -1788,19 +1798,19 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>98</v>

--- a/src/sastadev/data/methods/STAP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/STAP_Index_Current.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a3248526/git/sastadev_package/src/sastadev/data/methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B623269-27FD-4EDC-95BC-3F4628671A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C4612C-E497-C745-ACD2-B31EEBD3C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
   <si>
     <t>Item</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>unused2</t>
+  </si>
+  <si>
+    <t>Literal</t>
   </si>
 </sst>
 </file>
@@ -659,24 +662,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1000,32 +997,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T148"/>
+  <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="2"/>
-    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="18.1640625" style="2" customWidth="1"/>
     <col min="3" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="32.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="32.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.5546875" style="10" customWidth="1"/>
-    <col min="13" max="19" width="8.77734375" style="2"/>
-    <col min="20" max="20" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.77734375" style="2"/>
+    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.5" style="7" customWidth="1"/>
+    <col min="13" max="20" width="8.83203125" style="2"/>
+    <col min="21" max="21" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1053,7 @@
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1069,25 +1066,28 @@
         <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="J2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>137</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1125,7 +1125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="J3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>149</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1163,7 +1163,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="J4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>142</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1200,11 +1200,11 @@
       <c r="N4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="160" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="J5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>143</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1242,7 +1242,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="J6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1280,7 +1280,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="J7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1318,7 +1318,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="J8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="6" t="s">
         <v>136</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1356,7 +1356,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="J9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="6" t="s">
         <v>141</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1397,7 +1397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="J10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1438,7 +1438,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="J11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="6" t="s">
         <v>139</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1476,7 +1476,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="J12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -1514,7 +1514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="J13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>140</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1552,7 +1552,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="J14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>120</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="J15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>117</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -1628,7 +1628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>111</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="J16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="6" t="s">
         <v>118</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -1666,7 +1666,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>112</v>
       </c>
@@ -1700,11 +1700,11 @@
       <c r="N17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="U17" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>122</v>
       </c>
@@ -1738,11 +1738,11 @@
       <c r="N18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="C19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1776,11 +1776,11 @@
       <c r="N19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="U19" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>145</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="H20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="6" t="s">
         <v>147</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -1803,344 +1803,319 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E27" s="6"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K40" s="9"/>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K53" s="9"/>
-    </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K58" s="9"/>
-    </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K60" s="9"/>
-    </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K62" s="9"/>
-    </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K64" s="9"/>
-    </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K65" s="9"/>
-    </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K66" s="9"/>
-    </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K68" s="9"/>
-    </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K69" s="9"/>
-    </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K71" s="9"/>
-    </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K72" s="9"/>
-    </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K73" s="9"/>
-    </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K74" s="9"/>
-    </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K75" s="9"/>
-    </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K76" s="9"/>
-    </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K77" s="9"/>
-    </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K78" s="9"/>
-    </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K79" s="9"/>
-    </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K80" s="9"/>
-    </row>
-    <row r="81" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K81" s="9"/>
-    </row>
-    <row r="82" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K82" s="9"/>
-    </row>
-    <row r="83" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K83" s="9"/>
-    </row>
-    <row r="84" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K84" s="9"/>
-    </row>
-    <row r="85" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K85" s="9"/>
-    </row>
-    <row r="87" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K87" s="9"/>
-    </row>
-    <row r="88" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K88" s="9"/>
-    </row>
-    <row r="89" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E89" s="6"/>
-      <c r="K89" s="9"/>
-      <c r="T89" s="4"/>
-    </row>
-    <row r="90" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K90" s="9"/>
-    </row>
-    <row r="91" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K91" s="9"/>
-    </row>
-    <row r="92" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K92" s="9"/>
-    </row>
-    <row r="94" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K94" s="9"/>
-    </row>
-    <row r="95" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K95" s="9"/>
-    </row>
-    <row r="96" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="K96" s="9"/>
-    </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K99" s="9"/>
-    </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K100" s="9"/>
-    </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K101" s="9"/>
-    </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K102" s="9"/>
-    </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K103" s="9"/>
-    </row>
-    <row r="106" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K106" s="9"/>
-    </row>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K107" s="9"/>
-    </row>
-    <row r="112" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K112" s="9"/>
-    </row>
-    <row r="113" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K113" s="9"/>
-    </row>
-    <row r="114" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K114" s="9"/>
-    </row>
-    <row r="115" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K115" s="12"/>
-    </row>
-    <row r="116" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K116" s="11"/>
-    </row>
-    <row r="117" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K117" s="9"/>
-    </row>
-    <row r="118" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K118" s="9"/>
-    </row>
-    <row r="119" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K119" s="9"/>
-    </row>
-    <row r="120" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K120" s="9"/>
-    </row>
-    <row r="121" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K121" s="9"/>
-    </row>
-    <row r="122" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K122" s="9"/>
-    </row>
-    <row r="123" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-    </row>
-    <row r="124" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-    </row>
-    <row r="126" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K126" s="9"/>
-    </row>
-    <row r="127" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K127" s="9"/>
-    </row>
-    <row r="128" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K128" s="9"/>
-    </row>
-    <row r="129" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K129" s="9"/>
-    </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K130" s="9"/>
-    </row>
-    <row r="131" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K131" s="9"/>
-    </row>
-    <row r="132" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K132" s="9"/>
-    </row>
-    <row r="133" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K133" s="9"/>
-    </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K134" s="9"/>
-    </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K135" s="9"/>
-    </row>
-    <row r="136" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K136" s="9"/>
-    </row>
-    <row r="137" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K137" s="9"/>
-    </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="6"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="6"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="6"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="6"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="6"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="6"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="6"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="6"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K103" s="6"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K107" s="6"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K115" s="8"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K122" s="6"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K135" s="6"/>
+    </row>
+    <row r="136" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K137" s="6"/>
+    </row>
+    <row r="138" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E138" s="3"/>
-      <c r="K138" s="9"/>
-    </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K138" s="6"/>
+    </row>
+    <row r="139" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E140" s="5"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="K140" s="9"/>
-    </row>
-    <row r="141" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-    </row>
-    <row r="142" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="K142" s="9"/>
-    </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K144" s="9"/>
-    </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K146" s="9"/>
-    </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K147" s="9"/>
-    </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K148" s="9"/>
+    <row r="140" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E140" s="4"/>
+      <c r="K140" s="6"/>
+    </row>
+    <row r="142" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K142" s="6"/>
+    </row>
+    <row r="144" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K144" s="6"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K146" s="6"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K147" s="6"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K148" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T148" xr:uid="{FEE5544A-5DEE-468C-AA79-13446D744343}"/>
+  <autoFilter ref="A1:U148" xr:uid="{FEE5544A-5DEE-468C-AA79-13446D744343}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M148">
     <sortCondition ref="E2:E148"/>
     <sortCondition ref="I2:I148"/>
@@ -2158,51 +2133,51 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="12" max="12" width="25.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="80" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="14" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E5" s="14" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
@@ -2212,126 +2187,126 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
+    <row r="10" spans="2:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" ht="80" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:12" ht="288" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" ht="304" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="L14" s="15" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="L14" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D7:D26">

--- a/src/sastadev/data/methods/STAP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/STAP_Index_Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a3248526/git/sastadev_package/src/sastadev/data/methods/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C4612C-E497-C745-ACD2-B31EEBD3C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E104CA-089E-4E05-9FD2-18C33EDA55BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,17 +518,6 @@
 </t>
   </si>
   <si>
-    <t>//node[@pt="vnw" and 
-  not(@vwtype="bez") and
-    (@persoon="3"
-    or @persoon="3p"
-    or @persoon="3m"
-    or @persoon="3v"
-    or @persoon="3o")
-    and not(@pos="adv"
-        or @rel="det")]</t>
-  </si>
-  <si>
     <t>S019</t>
   </si>
   <si>
@@ -569,6 +558,20 @@
   </si>
   <si>
     <t>Literal</t>
+  </si>
+  <si>
+    <t>//node[@pt="vnw" and 
+  (not(@vwtype="bez") and
+    (@persoon="3"
+    or @persoon="3p"
+    or @persoon="3m"
+    or @persoon="3v"
+    or @persoon="3o")
+    and not(@pos="adv"
+        or @rel="det") and
+        @pdtype!="adv-pron") or
+  (@vwtype="aanw" and @positie="nom" and @pdtype!="adv-pron")        
+        ]</t>
   </si>
 </sst>
 </file>
@@ -1000,29 +1003,29 @@
   <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="18.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
     <col min="3" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="32.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="32.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.5" style="7" customWidth="1"/>
-    <col min="13" max="20" width="8.83203125" style="2"/>
-    <col min="21" max="21" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="2"/>
+    <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.44140625" style="7" customWidth="1"/>
+    <col min="13" max="20" width="8.77734375" style="2"/>
+    <col min="21" max="21" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,28 +1069,28 @@
         <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="144" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="160" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>97</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>98</v>
@@ -1163,7 +1166,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="160" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="144" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>98</v>
@@ -1438,7 +1441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>111</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>112</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>122</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
@@ -1780,21 +1783,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>98</v>
@@ -1803,315 +1806,315 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K40" s="6"/>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K49" s="6"/>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K53" s="6"/>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K60" s="6"/>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K66" s="6"/>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K69" s="6"/>
     </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K84" s="6"/>
     </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K85" s="6"/>
     </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K87" s="6"/>
     </row>
-    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K88" s="6"/>
     </row>
-    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K89" s="6"/>
     </row>
-    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K90" s="6"/>
     </row>
-    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K91" s="6"/>
     </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K92" s="6"/>
     </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K94" s="6"/>
     </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K96" s="6"/>
     </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K103" s="6"/>
     </row>
-    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K106" s="6"/>
     </row>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K107" s="6"/>
     </row>
-    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K112" s="6"/>
     </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K113" s="6"/>
     </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K114" s="6"/>
     </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K122" s="6"/>
     </row>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K127" s="6"/>
     </row>
-    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E138" s="3"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E140" s="4"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="142" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K142" s="6"/>
     </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K144" s="6"/>
     </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K146" s="6"/>
     </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K148" s="6"/>
     </row>
   </sheetData>
@@ -2133,14 +2136,14 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="72" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -2157,12 +2160,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -2205,11 +2208,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" ht="72" x14ac:dyDescent="0.3">
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -2230,11 +2233,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" ht="72" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>30</v>
       </c>
@@ -2246,11 +2249,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:12" ht="304" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="288" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -2260,51 +2263,51 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
     </row>
